--- a/data/outputs/management_altmetric/97.xlsx
+++ b/data/outputs/management_altmetric/97.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE99"/>
+  <dimension ref="A1:CF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>26.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1292,6 +1300,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1547,6 +1558,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>17.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1796,6 +1810,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2033,6 +2050,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2270,6 +2290,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2511,6 +2534,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2770,6 +2796,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3029,6 +3058,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3284,6 +3316,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3543,6 +3578,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3784,6 +3822,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4039,6 +4080,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4270,6 +4314,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4499,6 +4546,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4764,6 +4814,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5013,6 +5066,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5262,6 +5318,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5503,6 +5562,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5760,6 +5822,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6017,6 +6082,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6272,6 +6340,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6515,6 +6586,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6766,6 +6840,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7023,6 +7100,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7264,6 +7344,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7513,6 +7596,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7762,6 +7848,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8003,6 +8092,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8266,6 +8358,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8519,6 +8614,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8764,6 +8862,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9007,6 +9108,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9260,6 +9364,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9503,6 +9610,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9744,6 +9854,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9989,6 +10102,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10236,6 +10352,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10483,6 +10602,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10744,6 +10866,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10997,6 +11122,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11248,6 +11376,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11493,6 +11624,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11746,6 +11880,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12001,6 +12138,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12254,6 +12394,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12507,6 +12650,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12760,6 +12906,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13007,6 +13156,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13264,6 +13416,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13519,6 +13674,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13760,6 +13918,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14011,6 +14172,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14254,6 +14418,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14507,6 +14674,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14748,6 +14918,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15005,6 +15178,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15248,6 +15424,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15497,6 +15676,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15742,6 +15924,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15997,6 +16182,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16248,6 +16436,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16511,6 +16702,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16764,6 +16958,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17021,6 +17218,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17276,6 +17476,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17517,6 +17720,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17774,6 +17980,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18017,6 +18226,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18270,6 +18482,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18521,6 +18736,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18774,6 +18992,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19027,6 +19248,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19272,6 +19496,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19525,6 +19752,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19758,6 +19988,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20007,6 +20240,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20256,6 +20492,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20499,6 +20738,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20740,6 +20982,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20981,6 +21226,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21228,6 +21476,9 @@
       <c r="CE83" t="n">
         <v>1</v>
       </c>
+      <c r="CF83" t="n">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21469,6 +21720,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21714,6 +21968,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21968,6 +22225,9 @@
       </c>
       <c r="CE86" t="n">
         <v>0</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
@@ -22216,6 +22476,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22470,6 +22733,9 @@
       </c>
       <c r="CE88" t="n">
         <v>0</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="89">
@@ -22714,6 +22980,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22972,6 +23241,9 @@
       </c>
       <c r="CE90" t="n">
         <v>0</v>
+      </c>
+      <c r="CF90" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="91">
@@ -23210,6 +23482,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23464,6 +23739,9 @@
       </c>
       <c r="CE92" t="n">
         <v>0</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="93">
@@ -23706,6 +23984,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23955,6 +24236,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24205,6 +24489,9 @@
       </c>
       <c r="CE95" t="n">
         <v>0</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="96">
@@ -24447,6 +24734,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24710,6 +25000,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24964,6 +25257,9 @@
       </c>
       <c r="CE98" t="n">
         <v>0</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>11.33</v>
       </c>
     </row>
     <row r="99">
@@ -25212,6 +25508,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
